--- a/ProjectFiles/Mikilua/PyDSS Settings/HP-Legacy-B2/pyControllerList/PV Controller.xlsx
+++ b/ProjectFiles/Mikilua/PyDSS Settings/HP-Legacy-B2/pyControllerList/PV Controller.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28502"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10523"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mblonsky/Desktop/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9330F30-682A-B54A-8A02-AE5C4F575545}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640"/>
+    <workbookView xWindow="4240" yWindow="4880" windowWidth="28080" windowHeight="12640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controllers" sheetId="1" r:id="rId1"/>
     <sheet name="Settings" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -1744,7 +1740,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2087,7 +2083,7 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="27">
     <dxf>
       <font>
         <b val="0"/>
@@ -2102,6 +2098,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Courier New"/>
+        <family val="3"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2118,31 +2115,18 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color rgb="FFFFFFFF"/>
         <name val="Courier New"/>
+        <family val="3"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF2F75B5"/>
+          <bgColor rgb="FF2F75B5"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2248,6 +2232,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Courier New"/>
+        <family val="3"/>
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2576,6 +2561,16 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2590,33 +2585,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:X533" insertRowShift="1" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A2:X533"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A2:X533" insertRowShift="1" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+  <autoFilter ref="A2:X533" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="Controlled PV" dataDxfId="25"/>
-    <tableColumn id="2" name="Qcontrol" dataDxfId="1"/>
-    <tableColumn id="3" name="Pcontrol" dataDxfId="0"/>
-    <tableColumn id="4" name="pf" dataDxfId="24"/>
-    <tableColumn id="5" name="pfMin" dataDxfId="23"/>
-    <tableColumn id="6" name="pfMax" dataDxfId="22"/>
-    <tableColumn id="7" name="Pmin" dataDxfId="21"/>
-    <tableColumn id="8" name="Pmax" dataDxfId="20"/>
-    <tableColumn id="9" name="uMin" dataDxfId="19"/>
-    <tableColumn id="10" name="uDbMin" dataDxfId="18"/>
-    <tableColumn id="11" name="uDbMax" dataDxfId="17"/>
-    <tableColumn id="12" name="uMax" dataDxfId="16"/>
-    <tableColumn id="13" name="QlimPU" dataDxfId="15"/>
-    <tableColumn id="14" name="PFlim" dataDxfId="14"/>
-    <tableColumn id="23" name="Enable PF limit" dataDxfId="13"/>
-    <tableColumn id="21" name="uMinC" dataDxfId="12"/>
-    <tableColumn id="22" name="uMaxC" dataDxfId="11"/>
-    <tableColumn id="15" name="PminVW" dataDxfId="10"/>
-    <tableColumn id="16" name="VWtype" dataDxfId="9"/>
-    <tableColumn id="17" name="%PCutin" dataDxfId="8"/>
-    <tableColumn id="18" name="%PCutout" dataDxfId="7"/>
-    <tableColumn id="19" name="Efficiency" dataDxfId="6"/>
-    <tableColumn id="24" name="Priority" dataDxfId="5"/>
-    <tableColumn id="20" name="pDampCoef" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Controlled PV" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Qcontrol" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Pcontrol" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="pf" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="pfMin" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="pfMax" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Pmin" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Pmax" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="uMin" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="uDbMin" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="uDbMax" dataDxfId="15"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="uMax" dataDxfId="14"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="QlimPU" dataDxfId="13"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="PFlim" dataDxfId="12"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="Enable PF limit" dataDxfId="11"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="uMinC" dataDxfId="10"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="uMaxC" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="PminVW" dataDxfId="8"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="VWtype" dataDxfId="7"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="%PCutin" dataDxfId="6"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="%PCutout" dataDxfId="5"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Efficiency" dataDxfId="4"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Priority" dataDxfId="3"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="pDampCoef" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2884,11 +2879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y533"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="111" zoomScaleNormal="111" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3085,7 +3080,7 @@
         <v>10</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T3" s="11">
         <v>10</v>
@@ -3162,7 +3157,7 @@
         <v>10</v>
       </c>
       <c r="S4" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T4" s="11">
         <v>10</v>
@@ -3239,7 +3234,7 @@
         <v>10</v>
       </c>
       <c r="S5" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T5" s="11">
         <v>10</v>
@@ -3316,7 +3311,7 @@
         <v>10</v>
       </c>
       <c r="S6" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T6" s="11">
         <v>10</v>
@@ -3393,7 +3388,7 @@
         <v>10</v>
       </c>
       <c r="S7" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T7" s="11">
         <v>10</v>
@@ -3470,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="S8" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T8" s="11">
         <v>10</v>
@@ -3547,7 +3542,7 @@
         <v>10</v>
       </c>
       <c r="S9" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T9" s="11">
         <v>10</v>
@@ -3624,7 +3619,7 @@
         <v>10</v>
       </c>
       <c r="S10" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T10" s="11">
         <v>10</v>
@@ -3701,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="S11" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T11" s="11">
         <v>10</v>
@@ -3778,7 +3773,7 @@
         <v>10</v>
       </c>
       <c r="S12" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T12" s="11">
         <v>10</v>
@@ -3855,7 +3850,7 @@
         <v>10</v>
       </c>
       <c r="S13" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T13" s="11">
         <v>10</v>
@@ -3932,7 +3927,7 @@
         <v>10</v>
       </c>
       <c r="S14" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T14" s="11">
         <v>10</v>
@@ -4009,7 +4004,7 @@
         <v>10</v>
       </c>
       <c r="S15" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T15" s="11">
         <v>10</v>
@@ -4086,7 +4081,7 @@
         <v>10</v>
       </c>
       <c r="S16" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T16" s="11">
         <v>10</v>
@@ -4163,7 +4158,7 @@
         <v>10</v>
       </c>
       <c r="S17" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T17" s="11">
         <v>10</v>
@@ -4240,7 +4235,7 @@
         <v>10</v>
       </c>
       <c r="S18" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T18" s="11">
         <v>10</v>
@@ -4317,7 +4312,7 @@
         <v>10</v>
       </c>
       <c r="S19" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T19" s="11">
         <v>10</v>
@@ -4394,7 +4389,7 @@
         <v>10</v>
       </c>
       <c r="S20" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T20" s="11">
         <v>10</v>
@@ -4471,7 +4466,7 @@
         <v>10</v>
       </c>
       <c r="S21" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T21" s="11">
         <v>10</v>
@@ -4548,7 +4543,7 @@
         <v>10</v>
       </c>
       <c r="S22" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T22" s="11">
         <v>10</v>
@@ -4625,7 +4620,7 @@
         <v>10</v>
       </c>
       <c r="S23" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T23" s="11">
         <v>10</v>
@@ -4702,7 +4697,7 @@
         <v>10</v>
       </c>
       <c r="S24" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T24" s="11">
         <v>10</v>
@@ -4779,7 +4774,7 @@
         <v>10</v>
       </c>
       <c r="S25" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T25" s="11">
         <v>10</v>
@@ -4856,7 +4851,7 @@
         <v>10</v>
       </c>
       <c r="S26" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T26" s="11">
         <v>10</v>
@@ -4933,7 +4928,7 @@
         <v>10</v>
       </c>
       <c r="S27" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T27" s="11">
         <v>10</v>
@@ -5010,7 +5005,7 @@
         <v>10</v>
       </c>
       <c r="S28" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T28" s="11">
         <v>10</v>
@@ -5087,7 +5082,7 @@
         <v>10</v>
       </c>
       <c r="S29" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T29" s="11">
         <v>10</v>
@@ -5164,7 +5159,7 @@
         <v>10</v>
       </c>
       <c r="S30" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T30" s="11">
         <v>10</v>
@@ -5241,7 +5236,7 @@
         <v>10</v>
       </c>
       <c r="S31" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T31" s="11">
         <v>10</v>
@@ -5318,7 +5313,7 @@
         <v>10</v>
       </c>
       <c r="S32" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T32" s="11">
         <v>10</v>
@@ -5395,7 +5390,7 @@
         <v>10</v>
       </c>
       <c r="S33" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T33" s="11">
         <v>10</v>
@@ -5472,7 +5467,7 @@
         <v>10</v>
       </c>
       <c r="S34" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T34" s="11">
         <v>10</v>
@@ -5549,7 +5544,7 @@
         <v>10</v>
       </c>
       <c r="S35" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T35" s="11">
         <v>10</v>
@@ -5626,7 +5621,7 @@
         <v>10</v>
       </c>
       <c r="S36" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T36" s="11">
         <v>10</v>
@@ -5703,7 +5698,7 @@
         <v>10</v>
       </c>
       <c r="S37" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T37" s="11">
         <v>10</v>
@@ -5780,7 +5775,7 @@
         <v>10</v>
       </c>
       <c r="S38" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T38" s="11">
         <v>10</v>
@@ -5857,7 +5852,7 @@
         <v>10</v>
       </c>
       <c r="S39" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T39" s="11">
         <v>10</v>
@@ -5934,7 +5929,7 @@
         <v>10</v>
       </c>
       <c r="S40" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T40" s="11">
         <v>10</v>
@@ -6011,7 +6006,7 @@
         <v>10</v>
       </c>
       <c r="S41" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T41" s="11">
         <v>10</v>
@@ -6088,7 +6083,7 @@
         <v>10</v>
       </c>
       <c r="S42" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T42" s="11">
         <v>10</v>
@@ -6165,7 +6160,7 @@
         <v>10</v>
       </c>
       <c r="S43" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T43" s="11">
         <v>10</v>
@@ -6242,7 +6237,7 @@
         <v>10</v>
       </c>
       <c r="S44" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T44" s="11">
         <v>10</v>
@@ -6319,7 +6314,7 @@
         <v>10</v>
       </c>
       <c r="S45" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T45" s="11">
         <v>10</v>
@@ -6396,7 +6391,7 @@
         <v>10</v>
       </c>
       <c r="S46" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T46" s="11">
         <v>10</v>
@@ -6473,7 +6468,7 @@
         <v>10</v>
       </c>
       <c r="S47" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T47" s="11">
         <v>10</v>
@@ -6550,7 +6545,7 @@
         <v>10</v>
       </c>
       <c r="S48" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T48" s="11">
         <v>10</v>
@@ -6627,7 +6622,7 @@
         <v>10</v>
       </c>
       <c r="S49" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T49" s="11">
         <v>10</v>
@@ -6704,7 +6699,7 @@
         <v>10</v>
       </c>
       <c r="S50" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T50" s="11">
         <v>10</v>
@@ -6781,7 +6776,7 @@
         <v>10</v>
       </c>
       <c r="S51" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T51" s="11">
         <v>10</v>
@@ -6858,7 +6853,7 @@
         <v>10</v>
       </c>
       <c r="S52" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T52" s="11">
         <v>10</v>
@@ -6935,7 +6930,7 @@
         <v>10</v>
       </c>
       <c r="S53" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T53" s="11">
         <v>10</v>
@@ -7012,7 +7007,7 @@
         <v>10</v>
       </c>
       <c r="S54" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T54" s="11">
         <v>10</v>
@@ -7089,7 +7084,7 @@
         <v>10</v>
       </c>
       <c r="S55" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T55" s="11">
         <v>10</v>
@@ -7166,7 +7161,7 @@
         <v>10</v>
       </c>
       <c r="S56" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T56" s="11">
         <v>10</v>
@@ -7243,7 +7238,7 @@
         <v>10</v>
       </c>
       <c r="S57" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T57" s="11">
         <v>10</v>
@@ -7320,7 +7315,7 @@
         <v>10</v>
       </c>
       <c r="S58" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T58" s="11">
         <v>10</v>
@@ -7397,7 +7392,7 @@
         <v>10</v>
       </c>
       <c r="S59" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T59" s="11">
         <v>10</v>
@@ -7474,7 +7469,7 @@
         <v>10</v>
       </c>
       <c r="S60" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T60" s="11">
         <v>10</v>
@@ -7551,7 +7546,7 @@
         <v>10</v>
       </c>
       <c r="S61" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T61" s="11">
         <v>10</v>
@@ -7628,7 +7623,7 @@
         <v>10</v>
       </c>
       <c r="S62" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T62" s="11">
         <v>10</v>
@@ -7705,7 +7700,7 @@
         <v>10</v>
       </c>
       <c r="S63" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T63" s="11">
         <v>10</v>
@@ -7782,7 +7777,7 @@
         <v>10</v>
       </c>
       <c r="S64" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T64" s="11">
         <v>10</v>
@@ -7859,7 +7854,7 @@
         <v>10</v>
       </c>
       <c r="S65" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T65" s="11">
         <v>10</v>
@@ -7936,7 +7931,7 @@
         <v>10</v>
       </c>
       <c r="S66" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T66" s="11">
         <v>10</v>
@@ -8013,7 +8008,7 @@
         <v>10</v>
       </c>
       <c r="S67" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T67" s="11">
         <v>10</v>
@@ -8090,7 +8085,7 @@
         <v>10</v>
       </c>
       <c r="S68" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T68" s="11">
         <v>10</v>
@@ -8167,7 +8162,7 @@
         <v>10</v>
       </c>
       <c r="S69" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T69" s="11">
         <v>10</v>
@@ -8244,7 +8239,7 @@
         <v>10</v>
       </c>
       <c r="S70" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T70" s="11">
         <v>10</v>
@@ -8321,7 +8316,7 @@
         <v>10</v>
       </c>
       <c r="S71" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T71" s="11">
         <v>10</v>
@@ -8398,7 +8393,7 @@
         <v>10</v>
       </c>
       <c r="S72" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T72" s="11">
         <v>10</v>
@@ -8475,7 +8470,7 @@
         <v>10</v>
       </c>
       <c r="S73" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T73" s="11">
         <v>10</v>
@@ -8552,7 +8547,7 @@
         <v>10</v>
       </c>
       <c r="S74" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T74" s="11">
         <v>10</v>
@@ -8629,7 +8624,7 @@
         <v>10</v>
       </c>
       <c r="S75" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T75" s="11">
         <v>10</v>
@@ -8706,7 +8701,7 @@
         <v>10</v>
       </c>
       <c r="S76" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T76" s="11">
         <v>10</v>
@@ -8783,7 +8778,7 @@
         <v>10</v>
       </c>
       <c r="S77" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T77" s="11">
         <v>10</v>
@@ -8860,7 +8855,7 @@
         <v>10</v>
       </c>
       <c r="S78" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T78" s="11">
         <v>10</v>
@@ -8937,7 +8932,7 @@
         <v>10</v>
       </c>
       <c r="S79" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T79" s="11">
         <v>10</v>
@@ -9014,7 +9009,7 @@
         <v>10</v>
       </c>
       <c r="S80" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T80" s="11">
         <v>10</v>
@@ -9091,7 +9086,7 @@
         <v>10</v>
       </c>
       <c r="S81" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T81" s="11">
         <v>10</v>
@@ -9168,7 +9163,7 @@
         <v>10</v>
       </c>
       <c r="S82" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T82" s="11">
         <v>10</v>
@@ -9245,7 +9240,7 @@
         <v>10</v>
       </c>
       <c r="S83" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T83" s="11">
         <v>10</v>
@@ -9322,7 +9317,7 @@
         <v>10</v>
       </c>
       <c r="S84" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T84" s="11">
         <v>10</v>
@@ -9399,7 +9394,7 @@
         <v>10</v>
       </c>
       <c r="S85" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T85" s="11">
         <v>10</v>
@@ -9476,7 +9471,7 @@
         <v>10</v>
       </c>
       <c r="S86" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T86" s="11">
         <v>10</v>
@@ -9553,7 +9548,7 @@
         <v>10</v>
       </c>
       <c r="S87" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T87" s="11">
         <v>10</v>
@@ -9630,7 +9625,7 @@
         <v>10</v>
       </c>
       <c r="S88" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T88" s="11">
         <v>10</v>
@@ -9707,7 +9702,7 @@
         <v>10</v>
       </c>
       <c r="S89" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T89" s="11">
         <v>10</v>
@@ -9784,7 +9779,7 @@
         <v>10</v>
       </c>
       <c r="S90" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T90" s="11">
         <v>10</v>
@@ -9861,7 +9856,7 @@
         <v>10</v>
       </c>
       <c r="S91" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T91" s="11">
         <v>10</v>
@@ -9938,7 +9933,7 @@
         <v>10</v>
       </c>
       <c r="S92" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T92" s="11">
         <v>10</v>
@@ -10015,7 +10010,7 @@
         <v>10</v>
       </c>
       <c r="S93" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T93" s="11">
         <v>10</v>
@@ -10092,7 +10087,7 @@
         <v>10</v>
       </c>
       <c r="S94" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T94" s="11">
         <v>10</v>
@@ -10169,7 +10164,7 @@
         <v>10</v>
       </c>
       <c r="S95" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T95" s="11">
         <v>10</v>
@@ -10246,7 +10241,7 @@
         <v>10</v>
       </c>
       <c r="S96" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T96" s="11">
         <v>10</v>
@@ -10323,7 +10318,7 @@
         <v>10</v>
       </c>
       <c r="S97" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T97" s="11">
         <v>10</v>
@@ -10400,7 +10395,7 @@
         <v>10</v>
       </c>
       <c r="S98" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T98" s="11">
         <v>10</v>
@@ -10477,7 +10472,7 @@
         <v>10</v>
       </c>
       <c r="S99" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T99" s="11">
         <v>10</v>
@@ -10554,7 +10549,7 @@
         <v>10</v>
       </c>
       <c r="S100" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T100" s="11">
         <v>10</v>
@@ -10631,7 +10626,7 @@
         <v>10</v>
       </c>
       <c r="S101" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T101" s="11">
         <v>10</v>
@@ -10708,7 +10703,7 @@
         <v>10</v>
       </c>
       <c r="S102" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T102" s="11">
         <v>10</v>
@@ -10785,7 +10780,7 @@
         <v>10</v>
       </c>
       <c r="S103" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T103" s="11">
         <v>10</v>
@@ -10862,7 +10857,7 @@
         <v>10</v>
       </c>
       <c r="S104" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T104" s="11">
         <v>10</v>
@@ -10939,7 +10934,7 @@
         <v>10</v>
       </c>
       <c r="S105" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T105" s="11">
         <v>10</v>
@@ -11016,7 +11011,7 @@
         <v>10</v>
       </c>
       <c r="S106" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T106" s="11">
         <v>10</v>
@@ -11093,7 +11088,7 @@
         <v>10</v>
       </c>
       <c r="S107" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T107" s="11">
         <v>10</v>
@@ -11170,7 +11165,7 @@
         <v>10</v>
       </c>
       <c r="S108" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T108" s="11">
         <v>10</v>
@@ -11247,7 +11242,7 @@
         <v>10</v>
       </c>
       <c r="S109" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T109" s="11">
         <v>10</v>
@@ -11324,7 +11319,7 @@
         <v>10</v>
       </c>
       <c r="S110" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T110" s="11">
         <v>10</v>
@@ -11401,7 +11396,7 @@
         <v>10</v>
       </c>
       <c r="S111" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T111" s="11">
         <v>10</v>
@@ -11478,7 +11473,7 @@
         <v>10</v>
       </c>
       <c r="S112" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T112" s="11">
         <v>10</v>
@@ -11555,7 +11550,7 @@
         <v>10</v>
       </c>
       <c r="S113" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T113" s="11">
         <v>10</v>
@@ -11632,7 +11627,7 @@
         <v>10</v>
       </c>
       <c r="S114" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T114" s="11">
         <v>10</v>
@@ -11709,7 +11704,7 @@
         <v>10</v>
       </c>
       <c r="S115" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T115" s="11">
         <v>10</v>
@@ -11786,7 +11781,7 @@
         <v>10</v>
       </c>
       <c r="S116" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T116" s="11">
         <v>10</v>
@@ -11863,7 +11858,7 @@
         <v>10</v>
       </c>
       <c r="S117" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T117" s="11">
         <v>10</v>
@@ -11940,7 +11935,7 @@
         <v>10</v>
       </c>
       <c r="S118" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T118" s="11">
         <v>10</v>
@@ -12017,7 +12012,7 @@
         <v>10</v>
       </c>
       <c r="S119" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T119" s="11">
         <v>10</v>
@@ -12094,7 +12089,7 @@
         <v>10</v>
       </c>
       <c r="S120" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T120" s="11">
         <v>10</v>
@@ -12171,7 +12166,7 @@
         <v>10</v>
       </c>
       <c r="S121" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T121" s="11">
         <v>10</v>
@@ -12248,7 +12243,7 @@
         <v>10</v>
       </c>
       <c r="S122" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T122" s="11">
         <v>10</v>
@@ -12325,7 +12320,7 @@
         <v>10</v>
       </c>
       <c r="S123" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T123" s="11">
         <v>10</v>
@@ -12402,7 +12397,7 @@
         <v>10</v>
       </c>
       <c r="S124" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T124" s="11">
         <v>10</v>
@@ -12479,7 +12474,7 @@
         <v>10</v>
       </c>
       <c r="S125" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T125" s="11">
         <v>10</v>
@@ -12556,7 +12551,7 @@
         <v>10</v>
       </c>
       <c r="S126" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T126" s="11">
         <v>10</v>
@@ -12633,7 +12628,7 @@
         <v>10</v>
       </c>
       <c r="S127" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T127" s="11">
         <v>10</v>
@@ -12710,7 +12705,7 @@
         <v>10</v>
       </c>
       <c r="S128" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T128" s="11">
         <v>10</v>
@@ -12787,7 +12782,7 @@
         <v>10</v>
       </c>
       <c r="S129" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T129" s="11">
         <v>10</v>
@@ -12864,7 +12859,7 @@
         <v>10</v>
       </c>
       <c r="S130" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T130" s="11">
         <v>10</v>
@@ -12941,7 +12936,7 @@
         <v>10</v>
       </c>
       <c r="S131" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T131" s="11">
         <v>10</v>
@@ -13018,7 +13013,7 @@
         <v>10</v>
       </c>
       <c r="S132" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T132" s="11">
         <v>10</v>
@@ -13095,7 +13090,7 @@
         <v>10</v>
       </c>
       <c r="S133" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T133" s="11">
         <v>10</v>
@@ -13172,7 +13167,7 @@
         <v>10</v>
       </c>
       <c r="S134" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T134" s="11">
         <v>10</v>
@@ -13249,7 +13244,7 @@
         <v>10</v>
       </c>
       <c r="S135" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T135" s="11">
         <v>10</v>
@@ -13326,7 +13321,7 @@
         <v>10</v>
       </c>
       <c r="S136" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T136" s="11">
         <v>10</v>
@@ -13403,7 +13398,7 @@
         <v>10</v>
       </c>
       <c r="S137" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T137" s="11">
         <v>10</v>
@@ -13480,7 +13475,7 @@
         <v>10</v>
       </c>
       <c r="S138" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T138" s="11">
         <v>10</v>
@@ -13557,7 +13552,7 @@
         <v>10</v>
       </c>
       <c r="S139" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T139" s="11">
         <v>10</v>
@@ -13634,7 +13629,7 @@
         <v>10</v>
       </c>
       <c r="S140" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T140" s="11">
         <v>10</v>
@@ -13711,7 +13706,7 @@
         <v>10</v>
       </c>
       <c r="S141" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T141" s="11">
         <v>10</v>
@@ -13788,7 +13783,7 @@
         <v>10</v>
       </c>
       <c r="S142" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T142" s="11">
         <v>10</v>
@@ -13865,7 +13860,7 @@
         <v>10</v>
       </c>
       <c r="S143" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T143" s="11">
         <v>10</v>
@@ -13942,7 +13937,7 @@
         <v>10</v>
       </c>
       <c r="S144" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T144" s="11">
         <v>10</v>
@@ -14019,7 +14014,7 @@
         <v>10</v>
       </c>
       <c r="S145" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T145" s="11">
         <v>10</v>
@@ -14096,7 +14091,7 @@
         <v>10</v>
       </c>
       <c r="S146" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T146" s="11">
         <v>10</v>
@@ -14173,7 +14168,7 @@
         <v>10</v>
       </c>
       <c r="S147" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T147" s="11">
         <v>10</v>
@@ -14250,7 +14245,7 @@
         <v>10</v>
       </c>
       <c r="S148" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T148" s="11">
         <v>10</v>
@@ -14327,7 +14322,7 @@
         <v>10</v>
       </c>
       <c r="S149" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T149" s="11">
         <v>10</v>
@@ -14404,7 +14399,7 @@
         <v>10</v>
       </c>
       <c r="S150" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T150" s="11">
         <v>10</v>
@@ -14481,7 +14476,7 @@
         <v>10</v>
       </c>
       <c r="S151" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T151" s="11">
         <v>10</v>
@@ -14558,7 +14553,7 @@
         <v>10</v>
       </c>
       <c r="S152" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T152" s="11">
         <v>10</v>
@@ -14635,7 +14630,7 @@
         <v>10</v>
       </c>
       <c r="S153" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T153" s="11">
         <v>10</v>
@@ -14712,7 +14707,7 @@
         <v>10</v>
       </c>
       <c r="S154" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T154" s="11">
         <v>10</v>
@@ -14789,7 +14784,7 @@
         <v>10</v>
       </c>
       <c r="S155" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T155" s="11">
         <v>10</v>
@@ -14866,7 +14861,7 @@
         <v>10</v>
       </c>
       <c r="S156" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T156" s="11">
         <v>10</v>
@@ -14943,7 +14938,7 @@
         <v>10</v>
       </c>
       <c r="S157" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T157" s="11">
         <v>10</v>
@@ -15020,7 +15015,7 @@
         <v>10</v>
       </c>
       <c r="S158" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T158" s="11">
         <v>10</v>
@@ -15097,7 +15092,7 @@
         <v>10</v>
       </c>
       <c r="S159" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T159" s="11">
         <v>10</v>
@@ -15174,7 +15169,7 @@
         <v>10</v>
       </c>
       <c r="S160" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T160" s="11">
         <v>10</v>
@@ -15251,7 +15246,7 @@
         <v>10</v>
       </c>
       <c r="S161" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T161" s="11">
         <v>10</v>
@@ -15328,7 +15323,7 @@
         <v>10</v>
       </c>
       <c r="S162" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T162" s="11">
         <v>10</v>
@@ -15405,7 +15400,7 @@
         <v>10</v>
       </c>
       <c r="S163" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T163" s="11">
         <v>10</v>
@@ -15482,7 +15477,7 @@
         <v>10</v>
       </c>
       <c r="S164" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T164" s="11">
         <v>10</v>
@@ -15559,7 +15554,7 @@
         <v>10</v>
       </c>
       <c r="S165" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T165" s="11">
         <v>10</v>
@@ -15636,7 +15631,7 @@
         <v>10</v>
       </c>
       <c r="S166" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T166" s="11">
         <v>10</v>
@@ -15713,7 +15708,7 @@
         <v>10</v>
       </c>
       <c r="S167" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T167" s="11">
         <v>10</v>
@@ -15790,7 +15785,7 @@
         <v>10</v>
       </c>
       <c r="S168" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T168" s="11">
         <v>10</v>
@@ -15867,7 +15862,7 @@
         <v>10</v>
       </c>
       <c r="S169" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T169" s="11">
         <v>10</v>
@@ -15944,7 +15939,7 @@
         <v>10</v>
       </c>
       <c r="S170" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T170" s="11">
         <v>10</v>
@@ -16021,7 +16016,7 @@
         <v>10</v>
       </c>
       <c r="S171" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T171" s="11">
         <v>10</v>
@@ -16098,7 +16093,7 @@
         <v>10</v>
       </c>
       <c r="S172" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T172" s="11">
         <v>10</v>
@@ -16175,7 +16170,7 @@
         <v>10</v>
       </c>
       <c r="S173" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T173" s="11">
         <v>10</v>
@@ -16252,7 +16247,7 @@
         <v>10</v>
       </c>
       <c r="S174" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T174" s="11">
         <v>10</v>
@@ -16329,7 +16324,7 @@
         <v>10</v>
       </c>
       <c r="S175" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T175" s="11">
         <v>10</v>
@@ -16406,7 +16401,7 @@
         <v>10</v>
       </c>
       <c r="S176" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T176" s="11">
         <v>10</v>
@@ -16483,7 +16478,7 @@
         <v>10</v>
       </c>
       <c r="S177" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T177" s="11">
         <v>10</v>
@@ -16560,7 +16555,7 @@
         <v>10</v>
       </c>
       <c r="S178" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T178" s="11">
         <v>10</v>
@@ -16637,7 +16632,7 @@
         <v>10</v>
       </c>
       <c r="S179" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T179" s="11">
         <v>10</v>
@@ -16714,7 +16709,7 @@
         <v>10</v>
       </c>
       <c r="S180" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T180" s="11">
         <v>10</v>
@@ -16791,7 +16786,7 @@
         <v>10</v>
       </c>
       <c r="S181" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T181" s="11">
         <v>10</v>
@@ -16868,7 +16863,7 @@
         <v>10</v>
       </c>
       <c r="S182" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T182" s="11">
         <v>10</v>
@@ -16945,7 +16940,7 @@
         <v>10</v>
       </c>
       <c r="S183" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T183" s="11">
         <v>10</v>
@@ -17022,7 +17017,7 @@
         <v>10</v>
       </c>
       <c r="S184" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T184" s="11">
         <v>10</v>
@@ -17099,7 +17094,7 @@
         <v>10</v>
       </c>
       <c r="S185" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T185" s="11">
         <v>10</v>
@@ -17176,7 +17171,7 @@
         <v>10</v>
       </c>
       <c r="S186" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T186" s="11">
         <v>10</v>
@@ -17253,7 +17248,7 @@
         <v>10</v>
       </c>
       <c r="S187" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T187" s="11">
         <v>10</v>
@@ -17330,7 +17325,7 @@
         <v>10</v>
       </c>
       <c r="S188" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T188" s="11">
         <v>10</v>
@@ -17407,7 +17402,7 @@
         <v>10</v>
       </c>
       <c r="S189" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T189" s="11">
         <v>10</v>
@@ -17484,7 +17479,7 @@
         <v>10</v>
       </c>
       <c r="S190" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T190" s="11">
         <v>10</v>
@@ -17561,7 +17556,7 @@
         <v>10</v>
       </c>
       <c r="S191" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T191" s="11">
         <v>10</v>
@@ -17638,7 +17633,7 @@
         <v>10</v>
       </c>
       <c r="S192" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T192" s="11">
         <v>10</v>
@@ -17715,7 +17710,7 @@
         <v>10</v>
       </c>
       <c r="S193" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T193" s="11">
         <v>10</v>
@@ -17792,7 +17787,7 @@
         <v>10</v>
       </c>
       <c r="S194" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T194" s="11">
         <v>10</v>
@@ -17869,7 +17864,7 @@
         <v>10</v>
       </c>
       <c r="S195" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T195" s="11">
         <v>10</v>
@@ -17946,7 +17941,7 @@
         <v>10</v>
       </c>
       <c r="S196" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T196" s="11">
         <v>10</v>
@@ -18023,7 +18018,7 @@
         <v>10</v>
       </c>
       <c r="S197" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T197" s="11">
         <v>10</v>
@@ -18100,7 +18095,7 @@
         <v>10</v>
       </c>
       <c r="S198" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T198" s="11">
         <v>10</v>
@@ -18177,7 +18172,7 @@
         <v>10</v>
       </c>
       <c r="S199" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T199" s="11">
         <v>10</v>
@@ -18254,7 +18249,7 @@
         <v>10</v>
       </c>
       <c r="S200" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T200" s="11">
         <v>10</v>
@@ -18331,7 +18326,7 @@
         <v>10</v>
       </c>
       <c r="S201" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T201" s="11">
         <v>10</v>
@@ -18408,7 +18403,7 @@
         <v>10</v>
       </c>
       <c r="S202" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T202" s="11">
         <v>10</v>
@@ -18485,7 +18480,7 @@
         <v>10</v>
       </c>
       <c r="S203" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T203" s="11">
         <v>10</v>
@@ -18562,7 +18557,7 @@
         <v>10</v>
       </c>
       <c r="S204" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T204" s="11">
         <v>10</v>
@@ -18639,7 +18634,7 @@
         <v>10</v>
       </c>
       <c r="S205" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T205" s="11">
         <v>10</v>
@@ -18716,7 +18711,7 @@
         <v>10</v>
       </c>
       <c r="S206" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T206" s="11">
         <v>10</v>
@@ -18793,7 +18788,7 @@
         <v>10</v>
       </c>
       <c r="S207" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T207" s="11">
         <v>10</v>
@@ -18870,7 +18865,7 @@
         <v>10</v>
       </c>
       <c r="S208" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T208" s="11">
         <v>10</v>
@@ -18947,7 +18942,7 @@
         <v>10</v>
       </c>
       <c r="S209" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T209" s="11">
         <v>10</v>
@@ -19024,7 +19019,7 @@
         <v>10</v>
       </c>
       <c r="S210" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T210" s="11">
         <v>10</v>
@@ -19101,7 +19096,7 @@
         <v>10</v>
       </c>
       <c r="S211" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T211" s="11">
         <v>10</v>
@@ -19178,7 +19173,7 @@
         <v>10</v>
       </c>
       <c r="S212" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T212" s="11">
         <v>10</v>
@@ -19255,7 +19250,7 @@
         <v>10</v>
       </c>
       <c r="S213" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T213" s="11">
         <v>10</v>
@@ -19332,7 +19327,7 @@
         <v>10</v>
       </c>
       <c r="S214" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T214" s="11">
         <v>10</v>
@@ -19409,7 +19404,7 @@
         <v>10</v>
       </c>
       <c r="S215" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T215" s="11">
         <v>10</v>
@@ -19486,7 +19481,7 @@
         <v>10</v>
       </c>
       <c r="S216" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T216" s="11">
         <v>10</v>
@@ -19563,7 +19558,7 @@
         <v>10</v>
       </c>
       <c r="S217" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T217" s="11">
         <v>10</v>
@@ -19640,7 +19635,7 @@
         <v>10</v>
       </c>
       <c r="S218" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T218" s="11">
         <v>10</v>
@@ -19717,7 +19712,7 @@
         <v>10</v>
       </c>
       <c r="S219" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T219" s="11">
         <v>10</v>
@@ -19794,7 +19789,7 @@
         <v>10</v>
       </c>
       <c r="S220" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T220" s="11">
         <v>10</v>
@@ -19871,7 +19866,7 @@
         <v>10</v>
       </c>
       <c r="S221" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T221" s="11">
         <v>10</v>
@@ -19948,7 +19943,7 @@
         <v>10</v>
       </c>
       <c r="S222" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T222" s="11">
         <v>10</v>
@@ -20025,7 +20020,7 @@
         <v>10</v>
       </c>
       <c r="S223" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T223" s="11">
         <v>10</v>
@@ -20102,7 +20097,7 @@
         <v>10</v>
       </c>
       <c r="S224" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T224" s="11">
         <v>10</v>
@@ -20179,7 +20174,7 @@
         <v>10</v>
       </c>
       <c r="S225" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T225" s="11">
         <v>10</v>
@@ -20256,7 +20251,7 @@
         <v>10</v>
       </c>
       <c r="S226" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T226" s="11">
         <v>10</v>
@@ -20333,7 +20328,7 @@
         <v>10</v>
       </c>
       <c r="S227" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T227" s="11">
         <v>10</v>
@@ -20410,7 +20405,7 @@
         <v>10</v>
       </c>
       <c r="S228" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T228" s="11">
         <v>10</v>
@@ -20487,7 +20482,7 @@
         <v>10</v>
       </c>
       <c r="S229" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T229" s="11">
         <v>10</v>
@@ -20564,7 +20559,7 @@
         <v>10</v>
       </c>
       <c r="S230" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T230" s="11">
         <v>10</v>
@@ -20641,7 +20636,7 @@
         <v>10</v>
       </c>
       <c r="S231" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T231" s="11">
         <v>10</v>
@@ -20718,7 +20713,7 @@
         <v>10</v>
       </c>
       <c r="S232" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T232" s="11">
         <v>10</v>
@@ -20795,7 +20790,7 @@
         <v>10</v>
       </c>
       <c r="S233" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T233" s="11">
         <v>10</v>
@@ -20872,7 +20867,7 @@
         <v>10</v>
       </c>
       <c r="S234" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T234" s="11">
         <v>10</v>
@@ -20949,7 +20944,7 @@
         <v>10</v>
       </c>
       <c r="S235" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T235" s="11">
         <v>10</v>
@@ -21026,7 +21021,7 @@
         <v>10</v>
       </c>
       <c r="S236" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T236" s="11">
         <v>10</v>
@@ -21103,7 +21098,7 @@
         <v>10</v>
       </c>
       <c r="S237" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T237" s="11">
         <v>10</v>
@@ -21180,7 +21175,7 @@
         <v>10</v>
       </c>
       <c r="S238" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T238" s="11">
         <v>10</v>
@@ -21257,7 +21252,7 @@
         <v>10</v>
       </c>
       <c r="S239" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T239" s="11">
         <v>10</v>
@@ -21334,7 +21329,7 @@
         <v>10</v>
       </c>
       <c r="S240" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T240" s="11">
         <v>10</v>
@@ -21411,7 +21406,7 @@
         <v>10</v>
       </c>
       <c r="S241" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T241" s="11">
         <v>10</v>
@@ -21488,7 +21483,7 @@
         <v>10</v>
       </c>
       <c r="S242" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T242" s="11">
         <v>10</v>
@@ -21565,7 +21560,7 @@
         <v>10</v>
       </c>
       <c r="S243" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T243" s="11">
         <v>10</v>
@@ -21642,7 +21637,7 @@
         <v>10</v>
       </c>
       <c r="S244" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T244" s="11">
         <v>10</v>
@@ -21719,7 +21714,7 @@
         <v>10</v>
       </c>
       <c r="S245" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T245" s="11">
         <v>10</v>
@@ -21796,7 +21791,7 @@
         <v>10</v>
       </c>
       <c r="S246" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T246" s="11">
         <v>10</v>
@@ -21873,7 +21868,7 @@
         <v>10</v>
       </c>
       <c r="S247" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T247" s="11">
         <v>10</v>
@@ -21950,7 +21945,7 @@
         <v>10</v>
       </c>
       <c r="S248" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T248" s="11">
         <v>10</v>
@@ -22027,7 +22022,7 @@
         <v>10</v>
       </c>
       <c r="S249" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T249" s="11">
         <v>10</v>
@@ -22104,7 +22099,7 @@
         <v>10</v>
       </c>
       <c r="S250" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T250" s="11">
         <v>10</v>
@@ -22181,7 +22176,7 @@
         <v>10</v>
       </c>
       <c r="S251" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T251" s="11">
         <v>10</v>
@@ -22258,7 +22253,7 @@
         <v>10</v>
       </c>
       <c r="S252" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T252" s="11">
         <v>10</v>
@@ -22335,7 +22330,7 @@
         <v>10</v>
       </c>
       <c r="S253" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T253" s="11">
         <v>10</v>
@@ -22412,7 +22407,7 @@
         <v>10</v>
       </c>
       <c r="S254" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T254" s="11">
         <v>10</v>
@@ -22489,7 +22484,7 @@
         <v>10</v>
       </c>
       <c r="S255" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T255" s="11">
         <v>10</v>
@@ -22566,7 +22561,7 @@
         <v>10</v>
       </c>
       <c r="S256" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T256" s="11">
         <v>10</v>
@@ -22643,7 +22638,7 @@
         <v>10</v>
       </c>
       <c r="S257" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T257" s="11">
         <v>10</v>
@@ -22720,7 +22715,7 @@
         <v>10</v>
       </c>
       <c r="S258" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T258" s="11">
         <v>10</v>
@@ -22797,7 +22792,7 @@
         <v>10</v>
       </c>
       <c r="S259" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T259" s="11">
         <v>10</v>
@@ -22874,7 +22869,7 @@
         <v>10</v>
       </c>
       <c r="S260" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T260" s="11">
         <v>10</v>
@@ -22951,7 +22946,7 @@
         <v>10</v>
       </c>
       <c r="S261" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T261" s="11">
         <v>10</v>
@@ -23028,7 +23023,7 @@
         <v>10</v>
       </c>
       <c r="S262" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T262" s="11">
         <v>10</v>
@@ -23105,7 +23100,7 @@
         <v>10</v>
       </c>
       <c r="S263" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T263" s="11">
         <v>10</v>
@@ -23182,7 +23177,7 @@
         <v>10</v>
       </c>
       <c r="S264" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T264" s="11">
         <v>10</v>
@@ -23259,7 +23254,7 @@
         <v>10</v>
       </c>
       <c r="S265" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T265" s="11">
         <v>10</v>
@@ -23336,7 +23331,7 @@
         <v>10</v>
       </c>
       <c r="S266" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T266" s="11">
         <v>10</v>
@@ -23413,7 +23408,7 @@
         <v>10</v>
       </c>
       <c r="S267" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T267" s="11">
         <v>10</v>
@@ -23490,7 +23485,7 @@
         <v>10</v>
       </c>
       <c r="S268" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T268" s="11">
         <v>10</v>
@@ -23567,7 +23562,7 @@
         <v>10</v>
       </c>
       <c r="S269" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T269" s="11">
         <v>10</v>
@@ -23644,7 +23639,7 @@
         <v>10</v>
       </c>
       <c r="S270" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T270" s="11">
         <v>10</v>
@@ -23721,7 +23716,7 @@
         <v>10</v>
       </c>
       <c r="S271" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T271" s="11">
         <v>10</v>
@@ -23798,7 +23793,7 @@
         <v>10</v>
       </c>
       <c r="S272" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T272" s="11">
         <v>10</v>
@@ -23875,7 +23870,7 @@
         <v>10</v>
       </c>
       <c r="S273" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T273" s="11">
         <v>10</v>
@@ -23952,7 +23947,7 @@
         <v>10</v>
       </c>
       <c r="S274" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T274" s="11">
         <v>10</v>
@@ -24029,7 +24024,7 @@
         <v>10</v>
       </c>
       <c r="S275" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T275" s="11">
         <v>10</v>
@@ -24106,7 +24101,7 @@
         <v>10</v>
       </c>
       <c r="S276" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T276" s="11">
         <v>10</v>
@@ -24183,7 +24178,7 @@
         <v>10</v>
       </c>
       <c r="S277" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T277" s="11">
         <v>10</v>
@@ -24260,7 +24255,7 @@
         <v>10</v>
       </c>
       <c r="S278" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T278" s="11">
         <v>10</v>
@@ -24337,7 +24332,7 @@
         <v>10</v>
       </c>
       <c r="S279" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T279" s="11">
         <v>10</v>
@@ -24414,7 +24409,7 @@
         <v>10</v>
       </c>
       <c r="S280" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T280" s="11">
         <v>10</v>
@@ -24491,7 +24486,7 @@
         <v>10</v>
       </c>
       <c r="S281" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T281" s="11">
         <v>10</v>
@@ -24568,7 +24563,7 @@
         <v>10</v>
       </c>
       <c r="S282" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T282" s="11">
         <v>10</v>
@@ -24645,7 +24640,7 @@
         <v>10</v>
       </c>
       <c r="S283" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T283" s="11">
         <v>10</v>
@@ -24722,7 +24717,7 @@
         <v>10</v>
       </c>
       <c r="S284" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T284" s="11">
         <v>10</v>
@@ -24799,7 +24794,7 @@
         <v>10</v>
       </c>
       <c r="S285" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T285" s="11">
         <v>10</v>
@@ -24876,7 +24871,7 @@
         <v>10</v>
       </c>
       <c r="S286" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T286" s="11">
         <v>10</v>
@@ -24953,7 +24948,7 @@
         <v>10</v>
       </c>
       <c r="S287" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T287" s="11">
         <v>10</v>
@@ -25030,7 +25025,7 @@
         <v>10</v>
       </c>
       <c r="S288" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T288" s="11">
         <v>10</v>
@@ -25107,7 +25102,7 @@
         <v>10</v>
       </c>
       <c r="S289" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T289" s="11">
         <v>10</v>
@@ -25184,7 +25179,7 @@
         <v>10</v>
       </c>
       <c r="S290" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T290" s="11">
         <v>10</v>
@@ -25261,7 +25256,7 @@
         <v>10</v>
       </c>
       <c r="S291" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T291" s="11">
         <v>10</v>
@@ -25338,7 +25333,7 @@
         <v>10</v>
       </c>
       <c r="S292" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T292" s="11">
         <v>10</v>
@@ -25415,7 +25410,7 @@
         <v>10</v>
       </c>
       <c r="S293" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T293" s="11">
         <v>10</v>
@@ -25492,7 +25487,7 @@
         <v>10</v>
       </c>
       <c r="S294" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T294" s="11">
         <v>10</v>
@@ -25569,7 +25564,7 @@
         <v>10</v>
       </c>
       <c r="S295" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T295" s="11">
         <v>10</v>
@@ -25646,7 +25641,7 @@
         <v>10</v>
       </c>
       <c r="S296" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T296" s="11">
         <v>10</v>
@@ -25723,7 +25718,7 @@
         <v>10</v>
       </c>
       <c r="S297" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T297" s="11">
         <v>10</v>
@@ -25800,7 +25795,7 @@
         <v>10</v>
       </c>
       <c r="S298" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T298" s="11">
         <v>10</v>
@@ -25877,7 +25872,7 @@
         <v>10</v>
       </c>
       <c r="S299" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T299" s="11">
         <v>10</v>
@@ -25954,7 +25949,7 @@
         <v>10</v>
       </c>
       <c r="S300" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T300" s="11">
         <v>10</v>
@@ -26031,7 +26026,7 @@
         <v>10</v>
       </c>
       <c r="S301" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T301" s="11">
         <v>10</v>
@@ -26108,7 +26103,7 @@
         <v>10</v>
       </c>
       <c r="S302" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T302" s="11">
         <v>10</v>
@@ -26185,7 +26180,7 @@
         <v>10</v>
       </c>
       <c r="S303" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T303" s="11">
         <v>10</v>
@@ -26262,7 +26257,7 @@
         <v>10</v>
       </c>
       <c r="S304" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T304" s="11">
         <v>10</v>
@@ -26339,7 +26334,7 @@
         <v>10</v>
       </c>
       <c r="S305" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T305" s="11">
         <v>10</v>
@@ -26416,7 +26411,7 @@
         <v>10</v>
       </c>
       <c r="S306" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T306" s="11">
         <v>10</v>
@@ -26493,7 +26488,7 @@
         <v>10</v>
       </c>
       <c r="S307" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T307" s="11">
         <v>10</v>
@@ -26570,7 +26565,7 @@
         <v>10</v>
       </c>
       <c r="S308" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T308" s="11">
         <v>10</v>
@@ -26647,7 +26642,7 @@
         <v>10</v>
       </c>
       <c r="S309" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T309" s="11">
         <v>10</v>
@@ -26724,7 +26719,7 @@
         <v>10</v>
       </c>
       <c r="S310" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T310" s="11">
         <v>10</v>
@@ -26801,7 +26796,7 @@
         <v>10</v>
       </c>
       <c r="S311" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T311" s="11">
         <v>10</v>
@@ -26878,7 +26873,7 @@
         <v>10</v>
       </c>
       <c r="S312" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T312" s="11">
         <v>10</v>
@@ -26955,7 +26950,7 @@
         <v>10</v>
       </c>
       <c r="S313" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T313" s="11">
         <v>10</v>
@@ -27032,7 +27027,7 @@
         <v>10</v>
       </c>
       <c r="S314" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T314" s="11">
         <v>10</v>
@@ -27109,7 +27104,7 @@
         <v>10</v>
       </c>
       <c r="S315" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T315" s="11">
         <v>10</v>
@@ -27186,7 +27181,7 @@
         <v>10</v>
       </c>
       <c r="S316" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T316" s="11">
         <v>10</v>
@@ -27263,7 +27258,7 @@
         <v>10</v>
       </c>
       <c r="S317" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T317" s="11">
         <v>10</v>
@@ -27340,7 +27335,7 @@
         <v>10</v>
       </c>
       <c r="S318" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T318" s="11">
         <v>10</v>
@@ -27417,7 +27412,7 @@
         <v>10</v>
       </c>
       <c r="S319" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T319" s="11">
         <v>10</v>
@@ -27494,7 +27489,7 @@
         <v>10</v>
       </c>
       <c r="S320" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T320" s="11">
         <v>10</v>
@@ -27571,7 +27566,7 @@
         <v>10</v>
       </c>
       <c r="S321" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T321" s="11">
         <v>10</v>
@@ -27648,7 +27643,7 @@
         <v>10</v>
       </c>
       <c r="S322" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T322" s="11">
         <v>10</v>
@@ -27725,7 +27720,7 @@
         <v>10</v>
       </c>
       <c r="S323" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T323" s="11">
         <v>10</v>
@@ -27802,7 +27797,7 @@
         <v>10</v>
       </c>
       <c r="S324" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T324" s="11">
         <v>10</v>
@@ -27879,7 +27874,7 @@
         <v>10</v>
       </c>
       <c r="S325" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T325" s="11">
         <v>10</v>
@@ -27956,7 +27951,7 @@
         <v>10</v>
       </c>
       <c r="S326" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T326" s="11">
         <v>10</v>
@@ -28033,7 +28028,7 @@
         <v>10</v>
       </c>
       <c r="S327" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T327" s="11">
         <v>10</v>
@@ -28110,7 +28105,7 @@
         <v>10</v>
       </c>
       <c r="S328" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T328" s="11">
         <v>10</v>
@@ -28187,7 +28182,7 @@
         <v>10</v>
       </c>
       <c r="S329" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T329" s="11">
         <v>10</v>
@@ -28264,7 +28259,7 @@
         <v>10</v>
       </c>
       <c r="S330" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T330" s="11">
         <v>10</v>
@@ -28341,7 +28336,7 @@
         <v>10</v>
       </c>
       <c r="S331" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T331" s="11">
         <v>10</v>
@@ -28418,7 +28413,7 @@
         <v>10</v>
       </c>
       <c r="S332" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T332" s="11">
         <v>10</v>
@@ -28495,7 +28490,7 @@
         <v>10</v>
       </c>
       <c r="S333" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T333" s="11">
         <v>10</v>
@@ -28572,7 +28567,7 @@
         <v>10</v>
       </c>
       <c r="S334" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T334" s="11">
         <v>10</v>
@@ -28649,7 +28644,7 @@
         <v>10</v>
       </c>
       <c r="S335" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T335" s="11">
         <v>10</v>
@@ -28726,7 +28721,7 @@
         <v>10</v>
       </c>
       <c r="S336" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T336" s="11">
         <v>10</v>
@@ -28803,7 +28798,7 @@
         <v>10</v>
       </c>
       <c r="S337" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T337" s="11">
         <v>10</v>
@@ -28880,7 +28875,7 @@
         <v>10</v>
       </c>
       <c r="S338" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T338" s="11">
         <v>10</v>
@@ -28957,7 +28952,7 @@
         <v>10</v>
       </c>
       <c r="S339" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T339" s="11">
         <v>10</v>
@@ -29034,7 +29029,7 @@
         <v>10</v>
       </c>
       <c r="S340" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T340" s="11">
         <v>10</v>
@@ -29111,7 +29106,7 @@
         <v>10</v>
       </c>
       <c r="S341" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T341" s="11">
         <v>10</v>
@@ -29188,7 +29183,7 @@
         <v>10</v>
       </c>
       <c r="S342" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T342" s="11">
         <v>10</v>
@@ -29265,7 +29260,7 @@
         <v>10</v>
       </c>
       <c r="S343" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T343" s="11">
         <v>10</v>
@@ -29342,7 +29337,7 @@
         <v>10</v>
       </c>
       <c r="S344" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T344" s="11">
         <v>10</v>
@@ -29419,7 +29414,7 @@
         <v>10</v>
       </c>
       <c r="S345" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T345" s="11">
         <v>10</v>
@@ -29496,7 +29491,7 @@
         <v>10</v>
       </c>
       <c r="S346" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T346" s="11">
         <v>10</v>
@@ -29573,7 +29568,7 @@
         <v>10</v>
       </c>
       <c r="S347" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T347" s="11">
         <v>10</v>
@@ -29650,7 +29645,7 @@
         <v>10</v>
       </c>
       <c r="S348" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T348" s="11">
         <v>10</v>
@@ -29727,7 +29722,7 @@
         <v>10</v>
       </c>
       <c r="S349" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T349" s="11">
         <v>10</v>
@@ -29804,7 +29799,7 @@
         <v>10</v>
       </c>
       <c r="S350" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T350" s="11">
         <v>10</v>
@@ -29881,7 +29876,7 @@
         <v>10</v>
       </c>
       <c r="S351" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T351" s="11">
         <v>10</v>
@@ -29958,7 +29953,7 @@
         <v>10</v>
       </c>
       <c r="S352" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T352" s="11">
         <v>10</v>
@@ -30035,7 +30030,7 @@
         <v>10</v>
       </c>
       <c r="S353" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T353" s="11">
         <v>10</v>
@@ -30112,7 +30107,7 @@
         <v>10</v>
       </c>
       <c r="S354" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T354" s="11">
         <v>10</v>
@@ -30189,7 +30184,7 @@
         <v>10</v>
       </c>
       <c r="S355" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T355" s="11">
         <v>10</v>
@@ -30266,7 +30261,7 @@
         <v>10</v>
       </c>
       <c r="S356" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T356" s="11">
         <v>10</v>
@@ -30343,7 +30338,7 @@
         <v>10</v>
       </c>
       <c r="S357" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T357" s="11">
         <v>10</v>
@@ -30420,7 +30415,7 @@
         <v>10</v>
       </c>
       <c r="S358" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T358" s="11">
         <v>10</v>
@@ -30497,7 +30492,7 @@
         <v>10</v>
       </c>
       <c r="S359" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T359" s="11">
         <v>10</v>
@@ -30574,7 +30569,7 @@
         <v>10</v>
       </c>
       <c r="S360" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T360" s="11">
         <v>10</v>
@@ -30651,7 +30646,7 @@
         <v>10</v>
       </c>
       <c r="S361" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T361" s="11">
         <v>10</v>
@@ -30728,7 +30723,7 @@
         <v>10</v>
       </c>
       <c r="S362" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T362" s="11">
         <v>10</v>
@@ -30805,7 +30800,7 @@
         <v>10</v>
       </c>
       <c r="S363" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T363" s="11">
         <v>10</v>
@@ -30882,7 +30877,7 @@
         <v>10</v>
       </c>
       <c r="S364" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T364" s="11">
         <v>10</v>
@@ -30959,7 +30954,7 @@
         <v>10</v>
       </c>
       <c r="S365" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T365" s="11">
         <v>10</v>
@@ -31036,7 +31031,7 @@
         <v>10</v>
       </c>
       <c r="S366" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T366" s="11">
         <v>10</v>
@@ -31113,7 +31108,7 @@
         <v>10</v>
       </c>
       <c r="S367" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T367" s="11">
         <v>10</v>
@@ -31190,7 +31185,7 @@
         <v>10</v>
       </c>
       <c r="S368" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T368" s="11">
         <v>10</v>
@@ -31267,7 +31262,7 @@
         <v>10</v>
       </c>
       <c r="S369" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T369" s="11">
         <v>10</v>
@@ -31344,7 +31339,7 @@
         <v>10</v>
       </c>
       <c r="S370" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T370" s="11">
         <v>10</v>
@@ -31421,7 +31416,7 @@
         <v>10</v>
       </c>
       <c r="S371" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T371" s="11">
         <v>10</v>
@@ -31498,7 +31493,7 @@
         <v>10</v>
       </c>
       <c r="S372" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T372" s="11">
         <v>10</v>
@@ -31575,7 +31570,7 @@
         <v>10</v>
       </c>
       <c r="S373" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T373" s="11">
         <v>10</v>
@@ -31652,7 +31647,7 @@
         <v>10</v>
       </c>
       <c r="S374" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T374" s="11">
         <v>10</v>
@@ -31729,7 +31724,7 @@
         <v>10</v>
       </c>
       <c r="S375" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T375" s="11">
         <v>10</v>
@@ -31806,7 +31801,7 @@
         <v>10</v>
       </c>
       <c r="S376" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T376" s="11">
         <v>10</v>
@@ -31883,7 +31878,7 @@
         <v>10</v>
       </c>
       <c r="S377" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T377" s="11">
         <v>10</v>
@@ -31960,7 +31955,7 @@
         <v>10</v>
       </c>
       <c r="S378" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T378" s="11">
         <v>10</v>
@@ -32037,7 +32032,7 @@
         <v>10</v>
       </c>
       <c r="S379" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T379" s="11">
         <v>10</v>
@@ -32114,7 +32109,7 @@
         <v>10</v>
       </c>
       <c r="S380" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T380" s="11">
         <v>10</v>
@@ -32191,7 +32186,7 @@
         <v>10</v>
       </c>
       <c r="S381" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T381" s="11">
         <v>10</v>
@@ -32268,7 +32263,7 @@
         <v>10</v>
       </c>
       <c r="S382" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T382" s="11">
         <v>10</v>
@@ -32345,7 +32340,7 @@
         <v>10</v>
       </c>
       <c r="S383" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T383" s="11">
         <v>10</v>
@@ -32422,7 +32417,7 @@
         <v>10</v>
       </c>
       <c r="S384" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T384" s="11">
         <v>10</v>
@@ -32499,7 +32494,7 @@
         <v>10</v>
       </c>
       <c r="S385" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T385" s="11">
         <v>10</v>
@@ -32576,7 +32571,7 @@
         <v>10</v>
       </c>
       <c r="S386" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T386" s="11">
         <v>10</v>
@@ -32653,7 +32648,7 @@
         <v>10</v>
       </c>
       <c r="S387" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T387" s="11">
         <v>10</v>
@@ -32730,7 +32725,7 @@
         <v>10</v>
       </c>
       <c r="S388" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T388" s="11">
         <v>10</v>
@@ -32807,7 +32802,7 @@
         <v>10</v>
       </c>
       <c r="S389" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T389" s="11">
         <v>10</v>
@@ -32884,7 +32879,7 @@
         <v>10</v>
       </c>
       <c r="S390" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T390" s="11">
         <v>10</v>
@@ -32961,7 +32956,7 @@
         <v>10</v>
       </c>
       <c r="S391" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T391" s="11">
         <v>10</v>
@@ -33038,7 +33033,7 @@
         <v>10</v>
       </c>
       <c r="S392" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T392" s="11">
         <v>10</v>
@@ -33115,7 +33110,7 @@
         <v>10</v>
       </c>
       <c r="S393" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T393" s="11">
         <v>10</v>
@@ -33192,7 +33187,7 @@
         <v>10</v>
       </c>
       <c r="S394" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T394" s="11">
         <v>10</v>
@@ -33269,7 +33264,7 @@
         <v>10</v>
       </c>
       <c r="S395" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T395" s="11">
         <v>10</v>
@@ -33346,7 +33341,7 @@
         <v>10</v>
       </c>
       <c r="S396" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T396" s="11">
         <v>10</v>
@@ -33423,7 +33418,7 @@
         <v>10</v>
       </c>
       <c r="S397" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T397" s="11">
         <v>10</v>
@@ -33500,7 +33495,7 @@
         <v>10</v>
       </c>
       <c r="S398" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T398" s="11">
         <v>10</v>
@@ -33577,7 +33572,7 @@
         <v>10</v>
       </c>
       <c r="S399" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T399" s="11">
         <v>10</v>
@@ -33654,7 +33649,7 @@
         <v>10</v>
       </c>
       <c r="S400" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T400" s="11">
         <v>10</v>
@@ -33731,7 +33726,7 @@
         <v>10</v>
       </c>
       <c r="S401" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T401" s="11">
         <v>10</v>
@@ -33808,7 +33803,7 @@
         <v>10</v>
       </c>
       <c r="S402" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T402" s="11">
         <v>10</v>
@@ -33885,7 +33880,7 @@
         <v>10</v>
       </c>
       <c r="S403" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T403" s="11">
         <v>10</v>
@@ -33962,7 +33957,7 @@
         <v>10</v>
       </c>
       <c r="S404" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T404" s="11">
         <v>10</v>
@@ -34039,7 +34034,7 @@
         <v>10</v>
       </c>
       <c r="S405" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T405" s="11">
         <v>10</v>
@@ -34116,7 +34111,7 @@
         <v>10</v>
       </c>
       <c r="S406" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T406" s="11">
         <v>10</v>
@@ -34193,7 +34188,7 @@
         <v>10</v>
       </c>
       <c r="S407" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T407" s="11">
         <v>10</v>
@@ -34270,7 +34265,7 @@
         <v>10</v>
       </c>
       <c r="S408" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T408" s="11">
         <v>10</v>
@@ -34347,7 +34342,7 @@
         <v>10</v>
       </c>
       <c r="S409" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T409" s="11">
         <v>10</v>
@@ -34424,7 +34419,7 @@
         <v>10</v>
       </c>
       <c r="S410" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T410" s="11">
         <v>10</v>
@@ -34501,7 +34496,7 @@
         <v>10</v>
       </c>
       <c r="S411" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T411" s="11">
         <v>10</v>
@@ -34578,7 +34573,7 @@
         <v>10</v>
       </c>
       <c r="S412" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T412" s="11">
         <v>10</v>
@@ -34655,7 +34650,7 @@
         <v>10</v>
       </c>
       <c r="S413" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T413" s="11">
         <v>10</v>
@@ -34732,7 +34727,7 @@
         <v>10</v>
       </c>
       <c r="S414" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T414" s="11">
         <v>10</v>
@@ -34809,7 +34804,7 @@
         <v>10</v>
       </c>
       <c r="S415" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T415" s="11">
         <v>10</v>
@@ -34886,7 +34881,7 @@
         <v>10</v>
       </c>
       <c r="S416" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T416" s="11">
         <v>10</v>
@@ -34963,7 +34958,7 @@
         <v>10</v>
       </c>
       <c r="S417" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T417" s="11">
         <v>10</v>
@@ -35040,7 +35035,7 @@
         <v>10</v>
       </c>
       <c r="S418" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T418" s="11">
         <v>10</v>
@@ -35117,7 +35112,7 @@
         <v>10</v>
       </c>
       <c r="S419" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T419" s="11">
         <v>10</v>
@@ -35194,7 +35189,7 @@
         <v>10</v>
       </c>
       <c r="S420" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T420" s="11">
         <v>10</v>
@@ -35271,7 +35266,7 @@
         <v>10</v>
       </c>
       <c r="S421" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T421" s="11">
         <v>10</v>
@@ -35348,7 +35343,7 @@
         <v>10</v>
       </c>
       <c r="S422" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T422" s="11">
         <v>10</v>
@@ -35425,7 +35420,7 @@
         <v>10</v>
       </c>
       <c r="S423" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T423" s="11">
         <v>10</v>
@@ -35502,7 +35497,7 @@
         <v>10</v>
       </c>
       <c r="S424" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T424" s="11">
         <v>10</v>
@@ -35579,7 +35574,7 @@
         <v>10</v>
       </c>
       <c r="S425" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T425" s="11">
         <v>10</v>
@@ -35656,7 +35651,7 @@
         <v>10</v>
       </c>
       <c r="S426" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T426" s="11">
         <v>10</v>
@@ -35733,7 +35728,7 @@
         <v>10</v>
       </c>
       <c r="S427" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T427" s="11">
         <v>10</v>
@@ -35810,7 +35805,7 @@
         <v>10</v>
       </c>
       <c r="S428" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T428" s="11">
         <v>10</v>
@@ -35887,7 +35882,7 @@
         <v>10</v>
       </c>
       <c r="S429" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T429" s="11">
         <v>10</v>
@@ -35964,7 +35959,7 @@
         <v>10</v>
       </c>
       <c r="S430" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T430" s="11">
         <v>10</v>
@@ -36041,7 +36036,7 @@
         <v>10</v>
       </c>
       <c r="S431" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T431" s="11">
         <v>10</v>
@@ -36118,7 +36113,7 @@
         <v>10</v>
       </c>
       <c r="S432" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T432" s="11">
         <v>10</v>
@@ -36195,7 +36190,7 @@
         <v>10</v>
       </c>
       <c r="S433" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T433" s="11">
         <v>10</v>
@@ -36272,7 +36267,7 @@
         <v>10</v>
       </c>
       <c r="S434" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T434" s="11">
         <v>10</v>
@@ -36349,7 +36344,7 @@
         <v>10</v>
       </c>
       <c r="S435" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T435" s="11">
         <v>10</v>
@@ -36426,7 +36421,7 @@
         <v>10</v>
       </c>
       <c r="S436" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T436" s="11">
         <v>10</v>
@@ -36503,7 +36498,7 @@
         <v>10</v>
       </c>
       <c r="S437" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T437" s="11">
         <v>10</v>
@@ -36580,7 +36575,7 @@
         <v>10</v>
       </c>
       <c r="S438" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T438" s="11">
         <v>10</v>
@@ -36657,7 +36652,7 @@
         <v>10</v>
       </c>
       <c r="S439" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T439" s="11">
         <v>10</v>
@@ -36734,7 +36729,7 @@
         <v>10</v>
       </c>
       <c r="S440" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T440" s="11">
         <v>10</v>
@@ -36811,7 +36806,7 @@
         <v>10</v>
       </c>
       <c r="S441" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T441" s="11">
         <v>10</v>
@@ -36888,7 +36883,7 @@
         <v>10</v>
       </c>
       <c r="S442" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T442" s="11">
         <v>10</v>
@@ -36965,7 +36960,7 @@
         <v>10</v>
       </c>
       <c r="S443" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T443" s="11">
         <v>10</v>
@@ -37042,7 +37037,7 @@
         <v>10</v>
       </c>
       <c r="S444" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T444" s="11">
         <v>10</v>
@@ -37119,7 +37114,7 @@
         <v>10</v>
       </c>
       <c r="S445" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T445" s="11">
         <v>10</v>
@@ -37196,7 +37191,7 @@
         <v>10</v>
       </c>
       <c r="S446" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T446" s="11">
         <v>10</v>
@@ -37273,7 +37268,7 @@
         <v>10</v>
       </c>
       <c r="S447" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T447" s="11">
         <v>10</v>
@@ -37350,7 +37345,7 @@
         <v>10</v>
       </c>
       <c r="S448" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T448" s="11">
         <v>10</v>
@@ -37427,7 +37422,7 @@
         <v>10</v>
       </c>
       <c r="S449" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T449" s="11">
         <v>10</v>
@@ -37504,7 +37499,7 @@
         <v>10</v>
       </c>
       <c r="S450" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T450" s="11">
         <v>10</v>
@@ -37581,7 +37576,7 @@
         <v>10</v>
       </c>
       <c r="S451" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T451" s="11">
         <v>10</v>
@@ -37658,7 +37653,7 @@
         <v>10</v>
       </c>
       <c r="S452" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T452" s="11">
         <v>10</v>
@@ -37735,7 +37730,7 @@
         <v>10</v>
       </c>
       <c r="S453" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T453" s="11">
         <v>10</v>
@@ -37812,7 +37807,7 @@
         <v>10</v>
       </c>
       <c r="S454" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T454" s="11">
         <v>10</v>
@@ -37889,7 +37884,7 @@
         <v>10</v>
       </c>
       <c r="S455" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T455" s="11">
         <v>10</v>
@@ -37966,7 +37961,7 @@
         <v>10</v>
       </c>
       <c r="S456" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T456" s="11">
         <v>10</v>
@@ -38043,7 +38038,7 @@
         <v>10</v>
       </c>
       <c r="S457" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T457" s="11">
         <v>10</v>
@@ -38120,7 +38115,7 @@
         <v>10</v>
       </c>
       <c r="S458" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T458" s="11">
         <v>10</v>
@@ -38197,7 +38192,7 @@
         <v>10</v>
       </c>
       <c r="S459" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T459" s="11">
         <v>10</v>
@@ -38274,7 +38269,7 @@
         <v>10</v>
       </c>
       <c r="S460" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T460" s="11">
         <v>10</v>
@@ -38351,7 +38346,7 @@
         <v>10</v>
       </c>
       <c r="S461" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T461" s="11">
         <v>10</v>
@@ -38428,7 +38423,7 @@
         <v>10</v>
       </c>
       <c r="S462" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T462" s="11">
         <v>10</v>
@@ -38505,7 +38500,7 @@
         <v>10</v>
       </c>
       <c r="S463" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T463" s="11">
         <v>10</v>
@@ -38582,7 +38577,7 @@
         <v>10</v>
       </c>
       <c r="S464" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T464" s="11">
         <v>10</v>
@@ -38659,7 +38654,7 @@
         <v>10</v>
       </c>
       <c r="S465" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T465" s="11">
         <v>10</v>
@@ -38736,7 +38731,7 @@
         <v>10</v>
       </c>
       <c r="S466" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T466" s="11">
         <v>10</v>
@@ -38813,7 +38808,7 @@
         <v>10</v>
       </c>
       <c r="S467" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T467" s="11">
         <v>10</v>
@@ -38890,7 +38885,7 @@
         <v>10</v>
       </c>
       <c r="S468" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T468" s="11">
         <v>10</v>
@@ -38967,7 +38962,7 @@
         <v>10</v>
       </c>
       <c r="S469" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T469" s="11">
         <v>10</v>
@@ -39044,7 +39039,7 @@
         <v>10</v>
       </c>
       <c r="S470" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T470" s="11">
         <v>10</v>
@@ -39121,7 +39116,7 @@
         <v>10</v>
       </c>
       <c r="S471" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T471" s="11">
         <v>10</v>
@@ -39198,7 +39193,7 @@
         <v>10</v>
       </c>
       <c r="S472" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T472" s="11">
         <v>10</v>
@@ -39275,7 +39270,7 @@
         <v>10</v>
       </c>
       <c r="S473" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T473" s="11">
         <v>10</v>
@@ -39352,7 +39347,7 @@
         <v>10</v>
       </c>
       <c r="S474" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T474" s="11">
         <v>10</v>
@@ -39429,7 +39424,7 @@
         <v>10</v>
       </c>
       <c r="S475" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T475" s="11">
         <v>10</v>
@@ -39506,7 +39501,7 @@
         <v>10</v>
       </c>
       <c r="S476" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T476" s="11">
         <v>10</v>
@@ -39583,7 +39578,7 @@
         <v>10</v>
       </c>
       <c r="S477" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T477" s="11">
         <v>10</v>
@@ -39660,7 +39655,7 @@
         <v>10</v>
       </c>
       <c r="S478" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T478" s="11">
         <v>10</v>
@@ -39737,7 +39732,7 @@
         <v>10</v>
       </c>
       <c r="S479" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T479" s="11">
         <v>10</v>
@@ -39814,7 +39809,7 @@
         <v>10</v>
       </c>
       <c r="S480" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T480" s="11">
         <v>10</v>
@@ -39891,7 +39886,7 @@
         <v>10</v>
       </c>
       <c r="S481" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T481" s="11">
         <v>10</v>
@@ -39968,7 +39963,7 @@
         <v>10</v>
       </c>
       <c r="S482" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T482" s="11">
         <v>10</v>
@@ -40045,7 +40040,7 @@
         <v>10</v>
       </c>
       <c r="S483" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T483" s="11">
         <v>10</v>
@@ -40122,7 +40117,7 @@
         <v>10</v>
       </c>
       <c r="S484" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T484" s="11">
         <v>10</v>
@@ -40199,7 +40194,7 @@
         <v>10</v>
       </c>
       <c r="S485" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T485" s="11">
         <v>10</v>
@@ -40276,7 +40271,7 @@
         <v>10</v>
       </c>
       <c r="S486" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T486" s="11">
         <v>10</v>
@@ -40353,7 +40348,7 @@
         <v>10</v>
       </c>
       <c r="S487" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T487" s="11">
         <v>10</v>
@@ -40430,7 +40425,7 @@
         <v>10</v>
       </c>
       <c r="S488" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T488" s="11">
         <v>10</v>
@@ -40507,7 +40502,7 @@
         <v>10</v>
       </c>
       <c r="S489" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T489" s="11">
         <v>10</v>
@@ -40584,7 +40579,7 @@
         <v>10</v>
       </c>
       <c r="S490" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T490" s="11">
         <v>10</v>
@@ -40661,7 +40656,7 @@
         <v>10</v>
       </c>
       <c r="S491" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T491" s="11">
         <v>10</v>
@@ -40738,7 +40733,7 @@
         <v>10</v>
       </c>
       <c r="S492" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T492" s="11">
         <v>10</v>
@@ -40815,7 +40810,7 @@
         <v>10</v>
       </c>
       <c r="S493" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T493" s="11">
         <v>10</v>
@@ -40892,7 +40887,7 @@
         <v>10</v>
       </c>
       <c r="S494" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T494" s="11">
         <v>10</v>
@@ -40969,7 +40964,7 @@
         <v>10</v>
       </c>
       <c r="S495" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T495" s="11">
         <v>10</v>
@@ -41046,7 +41041,7 @@
         <v>10</v>
       </c>
       <c r="S496" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T496" s="11">
         <v>10</v>
@@ -41123,7 +41118,7 @@
         <v>10</v>
       </c>
       <c r="S497" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T497" s="11">
         <v>10</v>
@@ -41200,7 +41195,7 @@
         <v>10</v>
       </c>
       <c r="S498" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T498" s="11">
         <v>10</v>
@@ -41277,7 +41272,7 @@
         <v>10</v>
       </c>
       <c r="S499" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T499" s="11">
         <v>10</v>
@@ -41354,7 +41349,7 @@
         <v>10</v>
       </c>
       <c r="S500" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T500" s="11">
         <v>10</v>
@@ -41431,7 +41426,7 @@
         <v>10</v>
       </c>
       <c r="S501" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T501" s="11">
         <v>10</v>
@@ -41508,7 +41503,7 @@
         <v>10</v>
       </c>
       <c r="S502" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T502" s="11">
         <v>10</v>
@@ -41585,7 +41580,7 @@
         <v>10</v>
       </c>
       <c r="S503" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T503" s="11">
         <v>10</v>
@@ -41662,7 +41657,7 @@
         <v>10</v>
       </c>
       <c r="S504" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T504" s="11">
         <v>10</v>
@@ -41739,7 +41734,7 @@
         <v>10</v>
       </c>
       <c r="S505" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T505" s="11">
         <v>10</v>
@@ -41816,7 +41811,7 @@
         <v>10</v>
       </c>
       <c r="S506" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T506" s="11">
         <v>10</v>
@@ -41893,7 +41888,7 @@
         <v>10</v>
       </c>
       <c r="S507" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T507" s="11">
         <v>10</v>
@@ -41970,7 +41965,7 @@
         <v>10</v>
       </c>
       <c r="S508" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T508" s="11">
         <v>10</v>
@@ -42047,7 +42042,7 @@
         <v>10</v>
       </c>
       <c r="S509" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T509" s="11">
         <v>10</v>
@@ -42124,7 +42119,7 @@
         <v>10</v>
       </c>
       <c r="S510" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T510" s="11">
         <v>10</v>
@@ -42201,7 +42196,7 @@
         <v>10</v>
       </c>
       <c r="S511" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T511" s="11">
         <v>10</v>
@@ -42278,7 +42273,7 @@
         <v>10</v>
       </c>
       <c r="S512" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T512" s="11">
         <v>10</v>
@@ -42355,7 +42350,7 @@
         <v>10</v>
       </c>
       <c r="S513" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T513" s="11">
         <v>10</v>
@@ -42432,7 +42427,7 @@
         <v>10</v>
       </c>
       <c r="S514" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T514" s="11">
         <v>10</v>
@@ -42509,7 +42504,7 @@
         <v>10</v>
       </c>
       <c r="S515" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T515" s="11">
         <v>10</v>
@@ -42586,7 +42581,7 @@
         <v>10</v>
       </c>
       <c r="S516" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T516" s="11">
         <v>10</v>
@@ -42663,7 +42658,7 @@
         <v>10</v>
       </c>
       <c r="S517" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T517" s="11">
         <v>10</v>
@@ -42740,7 +42735,7 @@
         <v>10</v>
       </c>
       <c r="S518" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T518" s="11">
         <v>10</v>
@@ -42817,7 +42812,7 @@
         <v>10</v>
       </c>
       <c r="S519" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T519" s="11">
         <v>10</v>
@@ -42894,7 +42889,7 @@
         <v>10</v>
       </c>
       <c r="S520" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T520" s="11">
         <v>10</v>
@@ -42971,7 +42966,7 @@
         <v>10</v>
       </c>
       <c r="S521" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T521" s="11">
         <v>10</v>
@@ -43048,7 +43043,7 @@
         <v>10</v>
       </c>
       <c r="S522" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T522" s="11">
         <v>10</v>
@@ -43125,7 +43120,7 @@
         <v>10</v>
       </c>
       <c r="S523" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T523" s="11">
         <v>10</v>
@@ -43202,7 +43197,7 @@
         <v>10</v>
       </c>
       <c r="S524" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T524" s="11">
         <v>10</v>
@@ -43279,7 +43274,7 @@
         <v>10</v>
       </c>
       <c r="S525" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T525" s="11">
         <v>10</v>
@@ -43356,7 +43351,7 @@
         <v>10</v>
       </c>
       <c r="S526" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T526" s="11">
         <v>10</v>
@@ -43433,7 +43428,7 @@
         <v>10</v>
       </c>
       <c r="S527" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T527" s="11">
         <v>10</v>
@@ -43510,7 +43505,7 @@
         <v>10</v>
       </c>
       <c r="S528" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T528" s="11">
         <v>10</v>
@@ -43587,7 +43582,7 @@
         <v>10</v>
       </c>
       <c r="S529" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T529" s="11">
         <v>10</v>
@@ -43664,7 +43659,7 @@
         <v>10</v>
       </c>
       <c r="S530" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T530" s="11">
         <v>10</v>
@@ -43741,7 +43736,7 @@
         <v>10</v>
       </c>
       <c r="S531" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T531" s="11">
         <v>10</v>
@@ -43818,7 +43813,7 @@
         <v>10</v>
       </c>
       <c r="S532" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T532" s="11">
         <v>10</v>
@@ -43895,7 +43890,7 @@
         <v>10</v>
       </c>
       <c r="S533" s="21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T533" s="11">
         <v>10</v>
@@ -43925,7 +43920,7 @@
     <mergeCell ref="P1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:A533">
-    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -43935,31 +43930,31 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Settings!$D$3:$D$4</xm:f>
           </x14:formula1>
           <xm:sqref>W3:W1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
           <x14:formula1>
             <xm:f>Settings!$A$3:$A$6</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
             <xm:f>Settings!$B$3:$B$4</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000003000000}">
           <x14:formula1>
             <xm:f>Settings!$C$3:$C$4</xm:f>
           </x14:formula1>
           <xm:sqref>S3:S1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000004000000}">
           <x14:formula1>
             <xm:f>Settings!$E$3:$E$4</xm:f>
           </x14:formula1>
@@ -43972,7 +43967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
